--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>Relatório de posições - Placa: RYF8I86 | ID_Disp: 840083328 | Rótulo: MOTORISTA SERJÃO</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -19,10 +22,16 @@
     <t>Idade</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>endereco</t>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
   <si>
     <t>John Doe</t>
@@ -50,7 +59,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -60,9 +72,16 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="24"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,17 +90,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DDDDDD"/>
+        <fgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -104,15 +118,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,89 +470,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="81" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-12.135847</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-58.008802</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-12.135847</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-58.008802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
+      <c r="E6" s="5">
+        <v>-12.135847</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-58.008802</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
